--- a/biology/Botanique/Hewittia_(plante)/Hewittia_(plante).xlsx
+++ b/biology/Botanique/Hewittia_(plante)/Hewittia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hewittia malabarica est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire des régions tropicales d'Afrique et d'Asie. Ce sont des plantes herbacées grimpantes ou prostrées, aux feuilles alternes simples, dont les tiges peuvent atteindre 3 mètres de long. C'est l'unique espèce du genre Hewittia (genre monotypique).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Hewittia » est un hommage à John Hewitt (1880-1961), zoologiste et naturaliste anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Hewittia » est un hommage à John Hewitt (1880-1961), zoologiste et naturaliste anglais.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (12 juillet 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (12 juillet 2019) :
 Convolvulus bicolor Vahl
-Convolvulus bracteatus Vahl[3]
+Convolvulus bracteatus Vahl
 Convolvulus malabaricus L.
 Convolvulus scandens J. König ex Milne
-Convolvulus sublobatus L. f.[3]
+Convolvulus sublobatus L. f.
 Hewittia bicolor Wight &amp; Arn.
 Hewittia sublobata (L. f.) Kuntze
 Shutereia bicolor Choisy
